--- a/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_4_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1674985.870105385</v>
+        <v>1613188.696100083</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6495115.446408029</v>
+        <v>6495115.446408025</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729603</v>
+        <v>340528.8729729602</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>18.91514513347935</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>172.661805691106</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>71.76502445750526</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -798,13 +798,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>87.93706369081917</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>7.09091220521491</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>65.81859094400814</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>340.6730623044007</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>19.32753017949519</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>11.44141710884434</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -993,7 +993,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>100.3757489752775</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -1054,7 +1054,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>166.9624133398449</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>153.0251390105129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1145,7 +1145,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>185.8286068973422</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1199,7 +1199,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>384.9995409573735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>77.2696787599959</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>276.6537176498097</v>
       </c>
       <c r="I11" t="n">
-        <v>54.34255030734811</v>
+        <v>54.34255030734809</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>154.6770145813545</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1560122316143</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>91.18788919459635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>116.9656858938484</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>84.03689068796766</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.27429639260489</v>
+        <v>53.27429639260487</v>
       </c>
       <c r="S13" t="n">
         <v>153.3821556901394</v>
@@ -1585,13 +1585,13 @@
         <v>248.8244712305876</v>
       </c>
       <c r="V13" t="n">
-        <v>240.0011928611238</v>
+        <v>174.1019240360625</v>
       </c>
       <c r="W13" t="n">
         <v>245.1332730974649</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>204.814728770164</v>
       </c>
       <c r="Y13" t="n">
         <v>191.3426468763735</v>
@@ -1625,7 +1625,7 @@
         <v>276.6537176498097</v>
       </c>
       <c r="I14" t="n">
-        <v>54.34255030734806</v>
+        <v>54.34255030734808</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.7825697050897</v>
+        <v>102.7825697050907</v>
       </c>
       <c r="T14" t="n">
-        <v>188.8387244638602</v>
+        <v>188.8387244638603</v>
       </c>
       <c r="U14" t="n">
         <v>223.3441920743355</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.6770145813544</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E16" t="n">
         <v>128.1560122316142</v>
       </c>
       <c r="F16" t="n">
-        <v>53.47656050709102</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>84.0368906879676</v>
+        <v>84.03689068796761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.27429639260484</v>
+        <v>53.27429639260485</v>
       </c>
       <c r="S16" t="n">
         <v>153.3821556901393</v>
@@ -1822,10 +1822,10 @@
         <v>248.8244712305876</v>
       </c>
       <c r="V16" t="n">
-        <v>240.0011928611237</v>
+        <v>186.9685720530372</v>
       </c>
       <c r="W16" t="n">
-        <v>245.1332730974648</v>
+        <v>245.1332730974649</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E19" t="n">
         <v>128.1560122316142</v>
@@ -2014,13 +2014,13 @@
         <v>131.8391198817651</v>
       </c>
       <c r="G19" t="n">
-        <v>112.7309250029713</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>116.9656858938484</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>84.0368906879676</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>53.27429639260484</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T19" t="n">
         <v>206.0075568843154</v>
@@ -2062,7 +2062,7 @@
         <v>240.0011928611237</v>
       </c>
       <c r="W19" t="n">
-        <v>245.1332730974648</v>
+        <v>140.4938715453921</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>188.8387244638602</v>
       </c>
       <c r="U20" t="n">
-        <v>223.3441920743355</v>
+        <v>223.3441920743358</v>
       </c>
       <c r="V20" t="n">
         <v>315.1934843681346</v>
@@ -2239,25 +2239,25 @@
         <v>154.6770145813544</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D22" t="n">
-        <v>126.7540034815696</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F22" t="n">
-        <v>131.8391198817651</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>116.9656858938484</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>84.0368906879676</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.7302155642665</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.118430542487953</v>
       </c>
       <c r="T22" t="n">
         <v>206.0075568843154</v>
@@ -2302,7 +2302,7 @@
         <v>245.1332730974648</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y22" t="n">
         <v>191.3426468763734</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.9732731190951</v>
+        <v>374.973273119095</v>
       </c>
       <c r="C23" t="n">
-        <v>374.8776500311131</v>
+        <v>374.877650031113</v>
       </c>
       <c r="D23" t="n">
-        <v>369.2735958591206</v>
+        <v>369.2735958591205</v>
       </c>
       <c r="E23" t="n">
-        <v>379.0511185795228</v>
+        <v>379.0511185795227</v>
       </c>
       <c r="F23" t="n">
         <v>385.6744131770998</v>
@@ -2336,7 +2336,7 @@
         <v>276.6537176498097</v>
       </c>
       <c r="I23" t="n">
-        <v>54.34255030734809</v>
+        <v>54.34255030734806</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>102.7825697050907</v>
+        <v>102.7825697050906</v>
       </c>
       <c r="T23" t="n">
-        <v>188.8387244638603</v>
+        <v>188.8387244638606</v>
       </c>
       <c r="U23" t="n">
         <v>223.3441920743355</v>
       </c>
       <c r="V23" t="n">
-        <v>315.1934843681341</v>
+        <v>315.1934843681346</v>
       </c>
       <c r="W23" t="n">
         <v>348.7770031074336</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.6770145813545</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E25" t="n">
-        <v>30.09214036114578</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>84.03689068796763</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.34289127950401</v>
       </c>
       <c r="S25" t="n">
         <v>153.3821556901393</v>
@@ -2533,16 +2533,16 @@
         <v>248.8244712305876</v>
       </c>
       <c r="V25" t="n">
-        <v>240.0011928611238</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W25" t="n">
-        <v>245.1332730974649</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>204.814728770164</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.3426468763734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415064</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535244</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9203488815319</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019341</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995111</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>375.142059539758</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>278.300470672221</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862716</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
-        <v>316.840237390546</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298449</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>367.1380221263988</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950526</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875625</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039809</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540256</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041765</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037896</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067268</v>
+        <v>184.3243660869968</v>
       </c>
       <c r="U28" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>230.2487144040011</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198762</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2807,10 +2807,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U29" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2855,7 +2855,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>27.24733778393767</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835352</v>
+        <v>161.4075476023938</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3029,25 +3029,25 @@
         <v>341.4355598753965</v>
       </c>
       <c r="C32" t="n">
-        <v>341.3399367874144</v>
+        <v>370.8271370315937</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>345.5134053358241</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G32" t="n">
-        <v>339.957593273648</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>243.1160044061111</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139205</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T32" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U32" t="n">
         <v>189.8064788306369</v>
@@ -3092,7 +3092,7 @@
         <v>315.239289863735</v>
       </c>
       <c r="X32" t="n">
-        <v>361.4407561044619</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y32" t="n">
         <v>332.2438983289427</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.1393013376559</v>
+        <v>121.1393013376558</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6990307214526</v>
+        <v>104.6990307214525</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787098</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791562</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806655</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G34" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H34" t="n">
-        <v>83.42797265014981</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426901</v>
+        <v>50.4991774442696</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890625</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S34" t="n">
         <v>119.8444424464407</v>
@@ -3284,7 +3284,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I35" t="n">
-        <v>20.80483706364947</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24485646139205</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T35" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U35" t="n">
         <v>189.8064788306369</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.1393013376559</v>
+        <v>121.1393013376558</v>
       </c>
       <c r="C37" t="n">
-        <v>104.6990307214526</v>
+        <v>104.6990307214525</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21629023787098</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E37" t="n">
-        <v>94.61829898791562</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30140663806655</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G37" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H37" t="n">
-        <v>83.42797265014981</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I37" t="n">
-        <v>50.49917744426901</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.73658314890625</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S37" t="n">
         <v>119.8444424464407</v>
@@ -3995,7 +3995,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I44" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139281</v>
       </c>
       <c r="T44" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U44" t="n">
         <v>189.8064788306369</v>
@@ -4138,22 +4138,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D46" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E46" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F46" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G46" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H46" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I46" t="n">
-        <v>50.49917744426859</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S46" t="n">
         <v>119.8444424464407</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1701.829249246469</v>
+        <v>737.4436435834253</v>
       </c>
       <c r="C2" t="n">
-        <v>1682.723042040934</v>
+        <v>731.3594569370995</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.259112133995</v>
+        <v>730.935931070564</v>
       </c>
       <c r="E2" t="n">
-        <v>863.9188966508914</v>
+        <v>720.6361196278648</v>
       </c>
       <c r="F2" t="n">
-        <v>442.8884846045789</v>
+        <v>703.6461116219564</v>
       </c>
       <c r="G2" t="n">
-        <v>34.16020049741109</v>
+        <v>294.9178275147885</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16020049741109</v>
+        <v>120.5119631803381</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16020049741109</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="J2" t="n">
-        <v>288.3456719651654</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="K2" t="n">
-        <v>711.0781531206276</v>
+        <v>456.8926816528749</v>
       </c>
       <c r="L2" t="n">
-        <v>923.5598912302353</v>
+        <v>821.9884168700681</v>
       </c>
       <c r="M2" t="n">
-        <v>923.5598912302353</v>
+        <v>1244.720898025532</v>
       </c>
       <c r="N2" t="n">
-        <v>923.5598912302353</v>
+        <v>1667.453379180995</v>
       </c>
       <c r="O2" t="n">
-        <v>1346.292372385697</v>
+        <v>1667.453379180995</v>
       </c>
       <c r="P2" t="n">
-        <v>1346.292372385697</v>
+        <v>1667.453379180995</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.453379180989</v>
+        <v>1667.453379180995</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.010024870554</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.010024870554</v>
+        <v>1572.728949664661</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.010024870554</v>
+        <v>1350.52246561152</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.010024870554</v>
+        <v>1093.46197387103</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.010024870554</v>
+        <v>743.6244192075108</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.010024870554</v>
+        <v>743.6244192075108</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.010024870554</v>
+        <v>743.6244192075108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.010024870554</v>
+        <v>743.6244192075108</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>535.2537167340001</v>
+        <v>464.7595223108524</v>
       </c>
       <c r="C3" t="n">
-        <v>401.2586454829459</v>
+        <v>330.7644510597981</v>
       </c>
       <c r="D3" t="n">
-        <v>284.3614877023383</v>
+        <v>213.8672932791906</v>
       </c>
       <c r="E3" t="n">
-        <v>163.8686716946663</v>
+        <v>213.8672932791906</v>
       </c>
       <c r="F3" t="n">
-        <v>54.90879187717091</v>
+        <v>104.9074134616951</v>
       </c>
       <c r="G3" t="n">
-        <v>54.90879187717091</v>
+        <v>104.9074134616951</v>
       </c>
       <c r="H3" t="n">
-        <v>54.90879187717091</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16020049741109</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="J3" t="n">
-        <v>34.16020049741109</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="K3" t="n">
-        <v>456.8926816528733</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="L3" t="n">
-        <v>456.8926816528733</v>
+        <v>456.8926816528749</v>
       </c>
       <c r="M3" t="n">
-        <v>483.1410785130165</v>
+        <v>456.8926816528749</v>
       </c>
       <c r="N3" t="n">
-        <v>905.8735596684787</v>
+        <v>879.6251628083386</v>
       </c>
       <c r="O3" t="n">
-        <v>1328.606040823941</v>
+        <v>1302.357643963802</v>
       </c>
       <c r="P3" t="n">
-        <v>1328.606040823941</v>
+        <v>1328.606040823947</v>
       </c>
       <c r="Q3" t="n">
-        <v>1678.450505507924</v>
+        <v>1678.45050550793</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.010024870554</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="S3" t="n">
-        <v>1635.520101176105</v>
+        <v>1600.020014984869</v>
       </c>
       <c r="T3" t="n">
-        <v>1476.178237363113</v>
+        <v>1440.678151171877</v>
       </c>
       <c r="U3" t="n">
-        <v>1278.827426501332</v>
+        <v>1243.327340310096</v>
       </c>
       <c r="V3" t="n">
-        <v>1065.115899494365</v>
+        <v>1029.61581330313</v>
       </c>
       <c r="W3" t="n">
-        <v>851.8827312306939</v>
+        <v>940.7904964437164</v>
       </c>
       <c r="X3" t="n">
-        <v>675.5567493695868</v>
+        <v>764.4645145826091</v>
       </c>
       <c r="Y3" t="n">
-        <v>675.5567493695868</v>
+        <v>605.0625549464391</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>812.9757804723238</v>
+        <v>481.0942635084585</v>
       </c>
       <c r="C4" t="n">
-        <v>641.8824080340403</v>
+        <v>310.000891070175</v>
       </c>
       <c r="D4" t="n">
-        <v>482.3877633569502</v>
+        <v>150.5062463930851</v>
       </c>
       <c r="E4" t="n">
-        <v>482.3877633569502</v>
+        <v>150.5062463930851</v>
       </c>
       <c r="F4" t="n">
-        <v>317.7566374675415</v>
+        <v>150.5062463930851</v>
       </c>
       <c r="G4" t="n">
-        <v>150.506246393085</v>
+        <v>150.5062463930851</v>
       </c>
       <c r="H4" t="n">
-        <v>150.506246393085</v>
+        <v>150.5062463930851</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16020049741109</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24274990262161</v>
+        <v>48.24274990262172</v>
       </c>
       <c r="K4" t="n">
-        <v>202.7950776248596</v>
+        <v>202.7950776248597</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6921779049201</v>
+        <v>462.6921779049202</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9562343454133</v>
+        <v>751.9562343454136</v>
       </c>
       <c r="N4" t="n">
         <v>1032.795016739664</v>
@@ -4510,28 +4510,28 @@
         <v>1563.559097118261</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.286378793661</v>
+        <v>1556.396559537236</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.894610673571</v>
+        <v>1556.396559537236</v>
       </c>
       <c r="T4" t="n">
-        <v>1291.894610673571</v>
+        <v>1316.847820513938</v>
       </c>
       <c r="U4" t="n">
-        <v>1291.894610673571</v>
+        <v>1034.049673060062</v>
       </c>
       <c r="V4" t="n">
-        <v>1291.894610673571</v>
+        <v>760.1639279995842</v>
       </c>
       <c r="W4" t="n">
-        <v>1291.894610673571</v>
+        <v>481.0942635084585</v>
       </c>
       <c r="X4" t="n">
-        <v>1225.411185477603</v>
+        <v>481.0942635084585</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000.675486866368</v>
+        <v>481.0942635084585</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.8521721541549</v>
+        <v>476.6860165660478</v>
       </c>
       <c r="C5" t="n">
-        <v>486.727581467425</v>
+        <v>470.601829919722</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3040556008896</v>
+        <v>470.1783040531867</v>
       </c>
       <c r="E5" t="n">
-        <v>142.1898512530101</v>
+        <v>55.83808857008334</v>
       </c>
       <c r="F5" t="n">
-        <v>125.1998432471017</v>
+        <v>38.84808056417495</v>
       </c>
       <c r="G5" t="n">
-        <v>120.5119631803379</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="H5" t="n">
-        <v>120.5119631803379</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="I5" t="n">
-        <v>34.16020049741109</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="J5" t="n">
-        <v>288.3456719651654</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="K5" t="n">
-        <v>711.0781531206276</v>
+        <v>456.8926816528749</v>
       </c>
       <c r="L5" t="n">
-        <v>1133.81063427609</v>
+        <v>879.6251628083386</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.543115431552</v>
+        <v>1302.357643963802</v>
       </c>
       <c r="N5" t="n">
-        <v>1667.453379180989</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="O5" t="n">
-        <v>1667.453379180989</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="P5" t="n">
-        <v>1667.453379180989</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="Q5" t="n">
-        <v>1667.453379180989</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="R5" t="n">
-        <v>1708.010024870554</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="S5" t="n">
-        <v>1708.010024870554</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="T5" t="n">
-        <v>1708.010024870554</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="U5" t="n">
-        <v>1708.010024870554</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="V5" t="n">
-        <v>1708.010024870554</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="W5" t="n">
-        <v>1708.010024870554</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="X5" t="n">
-        <v>1708.010024870554</v>
+        <v>1287.843869282447</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.073351818644</v>
+        <v>886.9071962305372</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592.4982263762735</v>
+        <v>340.3516709065947</v>
       </c>
       <c r="C6" t="n">
-        <v>458.5031551252192</v>
+        <v>340.3516709065947</v>
       </c>
       <c r="D6" t="n">
-        <v>341.6059973446116</v>
+        <v>223.4545131259871</v>
       </c>
       <c r="E6" t="n">
-        <v>341.6059973446116</v>
+        <v>223.4545131259871</v>
       </c>
       <c r="F6" t="n">
-        <v>232.6461175271162</v>
+        <v>211.8975261473564</v>
       </c>
       <c r="G6" t="n">
-        <v>125.6560048414549</v>
+        <v>104.9074134616951</v>
       </c>
       <c r="H6" t="n">
-        <v>54.90879187717091</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="I6" t="n">
-        <v>34.16020049741109</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="J6" t="n">
-        <v>226.9730580600443</v>
+        <v>226.9730580600445</v>
       </c>
       <c r="K6" t="n">
-        <v>649.7055392155065</v>
+        <v>226.9730580600445</v>
       </c>
       <c r="L6" t="n">
-        <v>1072.438020370969</v>
+        <v>649.7055392155081</v>
       </c>
       <c r="M6" t="n">
-        <v>1328.606040823941</v>
+        <v>649.7055392155081</v>
       </c>
       <c r="N6" t="n">
-        <v>1328.606040823941</v>
+        <v>1072.438020370972</v>
       </c>
       <c r="O6" t="n">
-        <v>1328.606040823941</v>
+        <v>1495.170501526436</v>
       </c>
       <c r="P6" t="n">
-        <v>1328.606040823941</v>
+        <v>1495.170501526436</v>
       </c>
       <c r="Q6" t="n">
-        <v>1678.450505507924</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="R6" t="n">
-        <v>1708.010024870554</v>
+        <v>1708.01002487056</v>
       </c>
       <c r="S6" t="n">
-        <v>1600.020014984863</v>
+        <v>1600.020014984869</v>
       </c>
       <c r="T6" t="n">
-        <v>1440.678151171871</v>
+        <v>1440.678151171877</v>
       </c>
       <c r="U6" t="n">
-        <v>1243.32734031009</v>
+        <v>1243.327340310096</v>
       </c>
       <c r="V6" t="n">
-        <v>1029.615813303124</v>
+        <v>1029.61581330313</v>
       </c>
       <c r="W6" t="n">
-        <v>928.2261678735506</v>
+        <v>816.3826450394585</v>
       </c>
       <c r="X6" t="n">
-        <v>751.9001860124434</v>
+        <v>640.0566631783513</v>
       </c>
       <c r="Y6" t="n">
-        <v>592.4982263762735</v>
+        <v>480.6547035421813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.2535729356946</v>
+        <v>352.4165580554343</v>
       </c>
       <c r="C7" t="n">
-        <v>34.16020049741109</v>
+        <v>183.7676556919546</v>
       </c>
       <c r="D7" t="n">
-        <v>34.16020049741109</v>
+        <v>183.7676556919546</v>
       </c>
       <c r="E7" t="n">
-        <v>34.16020049741109</v>
+        <v>183.7676556919546</v>
       </c>
       <c r="F7" t="n">
-        <v>34.16020049741109</v>
+        <v>183.7676556919546</v>
       </c>
       <c r="G7" t="n">
-        <v>34.16020049741109</v>
+        <v>183.7676556919546</v>
       </c>
       <c r="H7" t="n">
-        <v>34.16020049741109</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="I7" t="n">
-        <v>34.16020049741109</v>
+        <v>34.1602004974112</v>
       </c>
       <c r="J7" t="n">
-        <v>48.24274990262161</v>
+        <v>48.24274990262172</v>
       </c>
       <c r="K7" t="n">
-        <v>202.7950776248596</v>
+        <v>202.7950776248597</v>
       </c>
       <c r="L7" t="n">
-        <v>462.6921779049201</v>
+        <v>462.6921779049202</v>
       </c>
       <c r="M7" t="n">
-        <v>751.9562343454133</v>
+        <v>751.9562343454136</v>
       </c>
       <c r="N7" t="n">
         <v>1032.795016739664</v>
@@ -4747,28 +4747,28 @@
         <v>1563.559097118261</v>
       </c>
       <c r="R7" t="n">
-        <v>1563.559097118261</v>
+        <v>1478.286378793661</v>
       </c>
       <c r="S7" t="n">
-        <v>1563.559097118261</v>
+        <v>1291.894610673571</v>
       </c>
       <c r="T7" t="n">
-        <v>1563.559097118261</v>
+        <v>1052.345871650273</v>
       </c>
       <c r="U7" t="n">
-        <v>1408.988249632895</v>
+        <v>1052.345871650273</v>
       </c>
       <c r="V7" t="n">
-        <v>1135.102504572417</v>
+        <v>778.4601265897952</v>
       </c>
       <c r="W7" t="n">
-        <v>856.0328400812909</v>
+        <v>778.4601265897952</v>
       </c>
       <c r="X7" t="n">
-        <v>617.6889779409743</v>
+        <v>540.1162644494786</v>
       </c>
       <c r="Y7" t="n">
-        <v>392.953279329739</v>
+        <v>540.1162644494786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.6022603407614</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C8" t="n">
-        <v>160.5180736944356</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D8" t="n">
-        <v>160.0945478279002</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
         <v>128.1168483125289</v>
@@ -4805,7 +4805,7 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
         <v>558.6080202959273</v>
@@ -4814,13 +4814,13 @@
         <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4835,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1695.912714533713</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>1346.075159870194</v>
+        <v>1765.267542741534</v>
       </c>
       <c r="W8" t="n">
-        <v>962.3148590053625</v>
+        <v>1381.507241876703</v>
       </c>
       <c r="X8" t="n">
-        <v>561.671461174315</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="Y8" t="n">
-        <v>172.7830359648468</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="9">
@@ -4887,22 +4887,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M9" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N9" t="n">
-        <v>2088.254281480102</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>395.6559567680183</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>395.6559567680183</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>236.1613120909283</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>236.1613120909283</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>236.1613120909283</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>236.1613120909283</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4987,25 +4987,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>583.3556631620627</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>583.3556631620627</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>583.3556631620627</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2328.460105825246</v>
+        <v>2328.460105825245</v>
       </c>
       <c r="C11" t="n">
         <v>1949.795812864524</v>
@@ -5036,19 +5036,19 @@
         <v>147.6259625787672</v>
       </c>
       <c r="I11" t="n">
-        <v>92.73449762184994</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J11" t="n">
-        <v>346.9199690896043</v>
+        <v>321.9691657197333</v>
       </c>
       <c r="K11" t="n">
-        <v>885.0794701986438</v>
+        <v>860.1286668287728</v>
       </c>
       <c r="L11" t="n">
-        <v>1597.670870010882</v>
+        <v>1572.720066641011</v>
       </c>
       <c r="M11" t="n">
-        <v>2373.989461002636</v>
+        <v>2349.038657632765</v>
       </c>
       <c r="N11" t="n">
         <v>3102.219674271383</v>
@@ -5060,31 +5060,31 @@
         <v>4275.007228607639</v>
       </c>
       <c r="Q11" t="n">
-        <v>4596.168235402932</v>
+        <v>4596.168235402931</v>
       </c>
       <c r="R11" t="n">
-        <v>4636.724881092497</v>
+        <v>4636.724881092496</v>
       </c>
       <c r="S11" t="n">
-        <v>4532.904103612607</v>
+        <v>4532.904103612605</v>
       </c>
       <c r="T11" t="n">
-        <v>4342.157917285475</v>
+        <v>4342.157917285474</v>
       </c>
       <c r="U11" t="n">
-        <v>4116.557723270996</v>
+        <v>4116.557723270994</v>
       </c>
       <c r="V11" t="n">
-        <v>3798.180466333486</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W11" t="n">
-        <v>3445.880463194664</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X11" t="n">
-        <v>3076.697363089626</v>
+        <v>3076.697363089625</v>
       </c>
       <c r="Y11" t="n">
-        <v>2707.220987763726</v>
+        <v>2707.220987763725</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>184.2303019658937</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4830890016098</v>
+        <v>113.4830890016097</v>
       </c>
       <c r="I12" t="n">
-        <v>92.73449762184994</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J12" t="n">
-        <v>92.73449762184994</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="K12" t="n">
-        <v>92.73449762184994</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="L12" t="n">
-        <v>92.73449762184994</v>
+        <v>592.2895222318891</v>
       </c>
       <c r="M12" t="n">
-        <v>92.73449762184994</v>
+        <v>1435.266602926456</v>
       </c>
       <c r="N12" t="n">
-        <v>966.3925897334678</v>
+        <v>1435.266602926456</v>
       </c>
       <c r="O12" t="n">
-        <v>1670.349680279362</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="P12" t="n">
         <v>2139.22369347235</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517.3268996501598</v>
+        <v>220.7688445729303</v>
       </c>
       <c r="C13" t="n">
-        <v>517.3268996501598</v>
+        <v>220.7688445729303</v>
       </c>
       <c r="D13" t="n">
-        <v>517.3268996501598</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="E13" t="n">
-        <v>387.8763822444888</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="F13" t="n">
-        <v>387.8763822444888</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="G13" t="n">
-        <v>295.767403260048</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="H13" t="n">
-        <v>177.6202457915142</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="I13" t="n">
-        <v>92.73449762184994</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J13" t="n">
         <v>137.6512848283224</v>
       </c>
       <c r="K13" t="n">
-        <v>323.0378503518225</v>
+        <v>323.0378503518222</v>
       </c>
       <c r="L13" t="n">
-        <v>613.769188433145</v>
+        <v>613.7691884331448</v>
       </c>
       <c r="M13" t="n">
-        <v>933.8674826749002</v>
+        <v>933.8674826749</v>
       </c>
       <c r="N13" t="n">
         <v>1245.540502870412</v>
       </c>
       <c r="O13" t="n">
-        <v>1535.935350998149</v>
+        <v>1535.935350998148</v>
       </c>
       <c r="P13" t="n">
         <v>1772.445029049023</v>
@@ -5233,16 +5233,16 @@
         <v>1200.63711463497</v>
       </c>
       <c r="V13" t="n">
-        <v>958.2116673005014</v>
+        <v>1024.776585305614</v>
       </c>
       <c r="W13" t="n">
-        <v>710.6023005353856</v>
+        <v>777.167218540498</v>
       </c>
       <c r="X13" t="n">
-        <v>710.6023005353856</v>
+        <v>570.2836541261909</v>
       </c>
       <c r="Y13" t="n">
-        <v>517.3268996501598</v>
+        <v>377.0082532409652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2328.460105825245</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.795812864525</v>
+        <v>1949.795812864524</v>
       </c>
       <c r="D14" t="n">
         <v>1576.792180683595</v>
@@ -5267,10 +5267,10 @@
         <v>804.3421486061982</v>
       </c>
       <c r="G14" t="n">
-        <v>427.0741622250398</v>
+        <v>427.07416222504</v>
       </c>
       <c r="H14" t="n">
-        <v>147.6259625787671</v>
+        <v>147.6259625787672</v>
       </c>
       <c r="I14" t="n">
         <v>92.73449762184991</v>
@@ -5291,13 +5291,13 @@
         <v>3127.170477641254</v>
       </c>
       <c r="O14" t="n">
-        <v>3745.850530688488</v>
+        <v>3770.801334058359</v>
       </c>
       <c r="P14" t="n">
-        <v>4275.007228607639</v>
+        <v>4299.95803197751</v>
       </c>
       <c r="Q14" t="n">
-        <v>4596.168235402931</v>
+        <v>4621.119038772802</v>
       </c>
       <c r="R14" t="n">
         <v>4636.724881092496</v>
@@ -5315,13 +5315,13 @@
         <v>3798.180466333485</v>
       </c>
       <c r="W14" t="n">
-        <v>3445.880463194663</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X14" t="n">
         <v>3076.697363089625</v>
       </c>
       <c r="Y14" t="n">
-        <v>2707.220987763725</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>92.73449762184991</v>
       </c>
       <c r="J15" t="n">
-        <v>92.73449762184991</v>
+        <v>149.7926652305665</v>
       </c>
       <c r="K15" t="n">
-        <v>92.73449762184991</v>
+        <v>605.5989214958652</v>
       </c>
       <c r="L15" t="n">
-        <v>92.73449762184991</v>
+        <v>1266.687093415153</v>
       </c>
       <c r="M15" t="n">
-        <v>92.73449762184991</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="N15" t="n">
-        <v>966.3925897334677</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="O15" t="n">
-        <v>1670.349680279362</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R15" t="n">
         <v>2139.22369347235</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.0874909821255</v>
+        <v>570.8952034967125</v>
       </c>
       <c r="C16" t="n">
-        <v>361.0874909821255</v>
+        <v>570.8952034967125</v>
       </c>
       <c r="D16" t="n">
-        <v>361.0874909821255</v>
+        <v>442.8608565456321</v>
       </c>
       <c r="E16" t="n">
-        <v>231.6369735764546</v>
+        <v>313.4103391399611</v>
       </c>
       <c r="F16" t="n">
-        <v>177.6202457915142</v>
+        <v>313.4103391399611</v>
       </c>
       <c r="G16" t="n">
         <v>177.6202457915142</v>
@@ -5437,13 +5437,13 @@
         <v>137.6512848283224</v>
       </c>
       <c r="K16" t="n">
-        <v>323.0378503518224</v>
+        <v>323.0378503518227</v>
       </c>
       <c r="L16" t="n">
-        <v>613.769188433145</v>
+        <v>613.7691884331455</v>
       </c>
       <c r="M16" t="n">
-        <v>933.8674826749003</v>
+        <v>933.8674826749007</v>
       </c>
       <c r="N16" t="n">
         <v>1245.540502870413</v>
@@ -5452,13 +5452,13 @@
         <v>1535.935350998149</v>
       </c>
       <c r="P16" t="n">
-        <v>1772.445029049023</v>
+        <v>1772.445029049024</v>
       </c>
       <c r="Q16" t="n">
         <v>1868.807296652796</v>
       </c>
       <c r="R16" t="n">
-        <v>1814.994876054205</v>
+        <v>1814.994876054206</v>
       </c>
       <c r="S16" t="n">
         <v>1660.063405660125</v>
@@ -5467,19 +5467,19 @@
         <v>1451.974964362837</v>
       </c>
       <c r="U16" t="n">
-        <v>1200.63711463497</v>
+        <v>1200.637114634971</v>
       </c>
       <c r="V16" t="n">
-        <v>958.2116673005021</v>
+        <v>1011.779971147054</v>
       </c>
       <c r="W16" t="n">
-        <v>710.6023005353859</v>
+        <v>764.1706043819382</v>
       </c>
       <c r="X16" t="n">
-        <v>710.6023005353859</v>
+        <v>764.1706043819382</v>
       </c>
       <c r="Y16" t="n">
-        <v>517.3268996501603</v>
+        <v>570.8952034967125</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1576.792180683595</v>
       </c>
       <c r="E17" t="n">
-        <v>1193.912262926502</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F17" t="n">
-        <v>804.3421486061989</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G17" t="n">
-        <v>427.0741622250403</v>
+        <v>427.0741622250396</v>
       </c>
       <c r="H17" t="n">
         <v>147.6259625787671</v>
@@ -5516,10 +5516,10 @@
         <v>346.9199690896042</v>
       </c>
       <c r="K17" t="n">
-        <v>885.0794701986438</v>
+        <v>860.1286668287728</v>
       </c>
       <c r="L17" t="n">
-        <v>1597.670870010882</v>
+        <v>1572.720066641011</v>
       </c>
       <c r="M17" t="n">
         <v>2349.038657632765</v>
@@ -5543,16 +5543,16 @@
         <v>4532.904103612606</v>
       </c>
       <c r="T17" t="n">
-        <v>4342.157917285475</v>
+        <v>4342.157917285474</v>
       </c>
       <c r="U17" t="n">
         <v>4116.557723270995</v>
       </c>
       <c r="V17" t="n">
-        <v>3798.180466333486</v>
+        <v>3798.180466333485</v>
       </c>
       <c r="W17" t="n">
-        <v>3445.880463194664</v>
+        <v>3445.880463194663</v>
       </c>
       <c r="X17" t="n">
         <v>3076.697363089625</v>
@@ -5592,28 +5592,28 @@
         <v>92.73449762184991</v>
       </c>
       <c r="J18" t="n">
-        <v>285.5473551844831</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="K18" t="n">
-        <v>741.3536114497819</v>
+        <v>384.6962556052699</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.44178336907</v>
+        <v>384.6962556052699</v>
       </c>
       <c r="M18" t="n">
-        <v>1402.44178336907</v>
+        <v>1227.673336299837</v>
       </c>
       <c r="N18" t="n">
-        <v>1759.819709425737</v>
+        <v>1227.673336299837</v>
       </c>
       <c r="O18" t="n">
-        <v>1759.819709425737</v>
+        <v>1227.673336299837</v>
       </c>
       <c r="P18" t="n">
-        <v>1759.819709425737</v>
+        <v>1789.379228788367</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.66417410972</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="R18" t="n">
         <v>2139.22369347235</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.2583700442406</v>
+        <v>623.0232648542742</v>
       </c>
       <c r="C19" t="n">
-        <v>672.2583700442406</v>
+        <v>483.3901901420003</v>
       </c>
       <c r="D19" t="n">
-        <v>672.2583700442406</v>
+        <v>355.3558431909199</v>
       </c>
       <c r="E19" t="n">
-        <v>542.8078526385699</v>
+        <v>225.905325785249</v>
       </c>
       <c r="F19" t="n">
-        <v>409.6370244751706</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="G19" t="n">
-        <v>295.7674032600479</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="H19" t="n">
-        <v>177.6202457915142</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="I19" t="n">
         <v>92.73449762184991</v>
@@ -5698,25 +5698,25 @@
         <v>1814.994876054205</v>
       </c>
       <c r="S19" t="n">
-        <v>1814.994876054205</v>
+        <v>1660.063405660125</v>
       </c>
       <c r="T19" t="n">
-        <v>1606.906434756917</v>
+        <v>1451.974964362837</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.568585029051</v>
+        <v>1200.63711463497</v>
       </c>
       <c r="V19" t="n">
-        <v>1113.143137694582</v>
+        <v>958.211667300502</v>
       </c>
       <c r="W19" t="n">
-        <v>865.5337709294663</v>
+        <v>816.2986657394999</v>
       </c>
       <c r="X19" t="n">
-        <v>865.5337709294663</v>
+        <v>816.2986657394999</v>
       </c>
       <c r="Y19" t="n">
-        <v>672.2583700442406</v>
+        <v>623.0232648542742</v>
       </c>
     </row>
     <row r="20">
@@ -5759,16 +5759,16 @@
         <v>1597.670870010882</v>
       </c>
       <c r="M20" t="n">
-        <v>2373.989461002636</v>
+        <v>2349.038657632765</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.170477641254</v>
+        <v>3102.219674271383</v>
       </c>
       <c r="O20" t="n">
-        <v>3770.801334058359</v>
+        <v>3745.850530688488</v>
       </c>
       <c r="P20" t="n">
-        <v>4299.95803197751</v>
+        <v>4275.007228607639</v>
       </c>
       <c r="Q20" t="n">
         <v>4596.168235402931</v>
@@ -5829,16 +5829,16 @@
         <v>92.73449762184991</v>
       </c>
       <c r="J21" t="n">
-        <v>285.5473551844831</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="K21" t="n">
-        <v>741.3536114497819</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="L21" t="n">
-        <v>741.3536114497819</v>
+        <v>753.8226695411381</v>
       </c>
       <c r="M21" t="n">
-        <v>1584.330692144349</v>
+        <v>1596.799750235705</v>
       </c>
       <c r="N21" t="n">
         <v>2139.22369347235</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>556.9725783745273</v>
+        <v>361.8180897397947</v>
       </c>
       <c r="C22" t="n">
-        <v>556.9725783745273</v>
+        <v>222.1850150275208</v>
       </c>
       <c r="D22" t="n">
-        <v>428.9382314234469</v>
+        <v>222.1850150275208</v>
       </c>
       <c r="E22" t="n">
-        <v>428.9382314234469</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="F22" t="n">
-        <v>295.7674032600478</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="G22" t="n">
-        <v>295.7674032600478</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="H22" t="n">
-        <v>177.6202457915142</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="I22" t="n">
         <v>92.73449762184991</v>
@@ -5932,28 +5932,28 @@
         <v>1868.807296652796</v>
       </c>
       <c r="R22" t="n">
-        <v>1855.948493052527</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="S22" t="n">
-        <v>1855.948493052527</v>
+        <v>1867.677568832101</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.860051755239</v>
+        <v>1659.589127534813</v>
       </c>
       <c r="U22" t="n">
-        <v>1396.522202027372</v>
+        <v>1408.251277806947</v>
       </c>
       <c r="V22" t="n">
-        <v>1154.096754692904</v>
+        <v>1165.825830472478</v>
       </c>
       <c r="W22" t="n">
-        <v>906.4873879277877</v>
+        <v>918.2164637073623</v>
       </c>
       <c r="X22" t="n">
-        <v>906.4873879277877</v>
+        <v>711.3328992930553</v>
       </c>
       <c r="Y22" t="n">
-        <v>713.2119870425621</v>
+        <v>518.0574984078296</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2328.460105825245</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C23" t="n">
         <v>1949.795812864524</v>
@@ -5972,16 +5972,16 @@
         <v>1576.792180683594</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.912262926501</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F23" t="n">
-        <v>804.342148606198</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G23" t="n">
-        <v>427.0741622250397</v>
+        <v>427.0741622250396</v>
       </c>
       <c r="H23" t="n">
-        <v>147.6259625787672</v>
+        <v>147.6259625787671</v>
       </c>
       <c r="I23" t="n">
         <v>92.73449762184991</v>
@@ -5990,13 +5990,13 @@
         <v>346.9199690896042</v>
       </c>
       <c r="K23" t="n">
-        <v>860.1286668287728</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L23" t="n">
-        <v>1572.720066641011</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M23" t="n">
-        <v>2349.038657632765</v>
+        <v>2373.989461002636</v>
       </c>
       <c r="N23" t="n">
         <v>3102.219674271383</v>
@@ -6023,16 +6023,16 @@
         <v>4116.557723270994</v>
       </c>
       <c r="V23" t="n">
-        <v>3798.180466333485</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W23" t="n">
-        <v>3445.880463194663</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X23" t="n">
         <v>3076.697363089625</v>
       </c>
       <c r="Y23" t="n">
-        <v>2707.220987763725</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>92.73449762184991</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7789081152496</v>
+        <v>285.5473551844831</v>
       </c>
       <c r="K24" t="n">
-        <v>566.5851643805483</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="L24" t="n">
-        <v>1227.673336299837</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="M24" t="n">
-        <v>1227.673336299837</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="N24" t="n">
-        <v>1227.673336299837</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="O24" t="n">
-        <v>1227.673336299837</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.379228788367</v>
+        <v>1759.819709425737</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R24" t="n">
         <v>2139.22369347235</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.0163471664089</v>
+        <v>629.3628407970504</v>
       </c>
       <c r="C25" t="n">
-        <v>208.0163471664089</v>
+        <v>489.7297660847764</v>
       </c>
       <c r="D25" t="n">
-        <v>208.0163471664089</v>
+        <v>361.6954191336961</v>
       </c>
       <c r="E25" t="n">
-        <v>177.6202457915142</v>
+        <v>361.6954191336961</v>
       </c>
       <c r="F25" t="n">
-        <v>177.6202457915142</v>
+        <v>228.5245909702969</v>
       </c>
       <c r="G25" t="n">
-        <v>177.6202457915142</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="H25" t="n">
-        <v>177.6202457915142</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="I25" t="n">
         <v>92.73449762184991</v>
       </c>
       <c r="J25" t="n">
-        <v>137.6512848283223</v>
+        <v>137.6512848283224</v>
       </c>
       <c r="K25" t="n">
-        <v>323.0378503518223</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L25" t="n">
-        <v>613.7691884331448</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M25" t="n">
-        <v>933.8674826749</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N25" t="n">
-        <v>1245.540502870412</v>
+        <v>1245.540502870413</v>
       </c>
       <c r="O25" t="n">
-        <v>1535.935350998148</v>
+        <v>1535.935350998149</v>
       </c>
       <c r="P25" t="n">
         <v>1772.445029049023</v>
       </c>
       <c r="Q25" t="n">
-        <v>1868.807296652795</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R25" t="n">
-        <v>1868.807296652795</v>
+        <v>1849.269022633095</v>
       </c>
       <c r="S25" t="n">
-        <v>1713.875826258715</v>
+        <v>1694.337552239015</v>
       </c>
       <c r="T25" t="n">
-        <v>1505.787384961427</v>
+        <v>1486.249110941727</v>
       </c>
       <c r="U25" t="n">
-        <v>1254.449535233561</v>
+        <v>1234.911261213861</v>
       </c>
       <c r="V25" t="n">
-        <v>1012.024087899093</v>
+        <v>992.4858138793921</v>
       </c>
       <c r="W25" t="n">
-        <v>764.4147211339766</v>
+        <v>992.4858138793921</v>
       </c>
       <c r="X25" t="n">
-        <v>557.5311567196695</v>
+        <v>785.6022494650852</v>
       </c>
       <c r="Y25" t="n">
-        <v>364.2557558344438</v>
+        <v>785.6022494650852</v>
       </c>
     </row>
     <row r="26">
@@ -6206,70 +6206,70 @@
         <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764618</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062275</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
-        <v>1598.180070079654</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M26" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841573</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.184884531138</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941467</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035662</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176681</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6294,37 +6294,37 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>184.7395020346665</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.24369769062275</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.0565552532559</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185543</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1228.18253636861</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.18253636861</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1228.18253636861</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O27" t="n">
-        <v>1228.18253636861</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.88842885714</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>716.7351475493342</v>
+        <v>503.1075438309888</v>
       </c>
       <c r="C28" t="n">
-        <v>575.4386859457356</v>
+        <v>361.8110822273902</v>
       </c>
       <c r="D28" t="n">
-        <v>445.7409521033306</v>
+        <v>361.8110822273902</v>
       </c>
       <c r="E28" t="n">
-        <v>314.6270478063351</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="F28" t="n">
-        <v>179.7928327516116</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G28" t="n">
-        <v>179.7928327516116</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516116</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>93.24369769062275</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
         <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749233</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
         <v>1237.898275478248</v>
@@ -6406,28 +6406,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1646.522384595457</v>
+        <v>1458.017319638045</v>
       </c>
       <c r="U28" t="n">
-        <v>1393.521147976266</v>
+        <v>1205.016083018855</v>
       </c>
       <c r="V28" t="n">
-        <v>1160.946688982325</v>
+        <v>960.9272487930614</v>
       </c>
       <c r="W28" t="n">
-        <v>911.6739353258845</v>
+        <v>711.6544951366205</v>
       </c>
       <c r="X28" t="n">
-        <v>911.6739353258845</v>
+        <v>503.1075438309888</v>
       </c>
       <c r="Y28" t="n">
-        <v>716.7351475493342</v>
+        <v>503.1075438309888</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133289</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281244</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6491,22 +6491,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176681</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>741.8628115185547</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>741.8628115185547</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P30" t="n">
         <v>1789.888428857139</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>914.9726005060949</v>
+        <v>365.6540635912173</v>
       </c>
       <c r="C31" t="n">
-        <v>773.6761389024963</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D31" t="n">
-        <v>643.9784050600912</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E31" t="n">
-        <v>512.8645007630956</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>378.0302857083718</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>240.5768054686002</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>120.7662611087417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1856.27421278407</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1603.272976164879</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>1359.184141939086</v>
+        <v>1018.41255632984</v>
       </c>
       <c r="W31" t="n">
-        <v>1109.911388282645</v>
+        <v>769.1398026733996</v>
       </c>
       <c r="X31" t="n">
-        <v>1109.911388282645</v>
+        <v>560.5928513677678</v>
       </c>
       <c r="Y31" t="n">
-        <v>914.9726005060949</v>
+        <v>365.6540635912173</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2214.902626094155</v>
+        <v>2244.687676845852</v>
       </c>
       <c r="C32" t="n">
         <v>1870.114811157373</v>
       </c>
       <c r="D32" t="n">
-        <v>1530.987657000381</v>
+        <v>1465.650881250434</v>
       </c>
       <c r="E32" t="n">
-        <v>1181.984217267226</v>
+        <v>1116.647441517278</v>
       </c>
       <c r="F32" t="n">
-        <v>760.9538052209133</v>
+        <v>760.9538052209134</v>
       </c>
       <c r="G32" t="n">
-        <v>417.5622968636931</v>
+        <v>352.2255211137456</v>
       </c>
       <c r="H32" t="n">
-        <v>171.9905752413587</v>
+        <v>106.6537994914112</v>
       </c>
       <c r="I32" t="n">
-        <v>85.63881255843184</v>
+        <v>85.63881255843197</v>
       </c>
       <c r="J32" t="n">
-        <v>339.8242840261861</v>
+        <v>339.8242840261863</v>
       </c>
       <c r="K32" t="n">
-        <v>877.9837851352256</v>
+        <v>877.9837851352258</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.575184947464</v>
+        <v>1217.935813470113</v>
       </c>
       <c r="M32" t="n">
-        <v>2034.811050151425</v>
+        <v>1994.254404461867</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.992066790043</v>
+        <v>2747.435421100485</v>
       </c>
       <c r="O32" t="n">
-        <v>3431.622923207148</v>
+        <v>3391.06627751759</v>
       </c>
       <c r="P32" t="n">
-        <v>3960.7796211263</v>
+        <v>3920.222975436741</v>
       </c>
       <c r="Q32" t="n">
-        <v>4281.940627921592</v>
+        <v>4241.383982232033</v>
       </c>
       <c r="R32" t="n">
-        <v>4281.940627921592</v>
+        <v>4281.940627921598</v>
       </c>
       <c r="S32" t="n">
-        <v>4211.996328465641</v>
+        <v>4211.996328465647</v>
       </c>
       <c r="T32" t="n">
-        <v>4055.126620162447</v>
+        <v>4055.126620162453</v>
       </c>
       <c r="U32" t="n">
-        <v>3863.402904171905</v>
+        <v>3863.402904171911</v>
       </c>
       <c r="V32" t="n">
-        <v>3578.902125258333</v>
+        <v>3578.90212525834</v>
       </c>
       <c r="W32" t="n">
-        <v>3260.47860014345</v>
+        <v>3260.478600143456</v>
       </c>
       <c r="X32" t="n">
-        <v>2895.38692731066</v>
+        <v>2925.171978062356</v>
       </c>
       <c r="Y32" t="n">
-        <v>2559.787030008697</v>
+        <v>2589.572080760394</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>764.4696544449662</v>
+        <v>764.4696544449664</v>
       </c>
       <c r="C33" t="n">
-        <v>630.4745831939119</v>
+        <v>630.4745831939121</v>
       </c>
       <c r="D33" t="n">
-        <v>513.5774254133044</v>
+        <v>513.5774254133045</v>
       </c>
       <c r="E33" t="n">
-        <v>393.0846094056324</v>
+        <v>393.0846094056325</v>
       </c>
       <c r="F33" t="n">
-        <v>284.1247295881369</v>
+        <v>284.124729588137</v>
       </c>
       <c r="G33" t="n">
-        <v>177.1346169024756</v>
+        <v>177.1346169024757</v>
       </c>
       <c r="H33" t="n">
-        <v>106.3874039381917</v>
+        <v>106.3874039381918</v>
       </c>
       <c r="I33" t="n">
-        <v>85.63881255843184</v>
+        <v>85.63881255843197</v>
       </c>
       <c r="J33" t="n">
-        <v>278.4516701210651</v>
+        <v>278.4516701210652</v>
       </c>
       <c r="K33" t="n">
-        <v>734.2579263863638</v>
+        <v>278.4516701210652</v>
       </c>
       <c r="L33" t="n">
-        <v>1220.577651236418</v>
+        <v>939.5398420403535</v>
       </c>
       <c r="M33" t="n">
-        <v>1220.577651236418</v>
+        <v>1752.724024362319</v>
       </c>
       <c r="N33" t="n">
-        <v>1220.577651236418</v>
+        <v>1752.724024362319</v>
       </c>
       <c r="O33" t="n">
-        <v>1220.577651236418</v>
+        <v>1752.724024362319</v>
       </c>
       <c r="P33" t="n">
-        <v>1782.283543724948</v>
+        <v>1752.724024362319</v>
       </c>
       <c r="Q33" t="n">
-        <v>2132.128008408932</v>
+        <v>2102.568489046302</v>
       </c>
       <c r="R33" t="n">
         <v>2132.128008408932</v>
@@ -6813,7 +6813,7 @@
         <v>1667.445323848468</v>
       </c>
       <c r="V33" t="n">
-        <v>1453.733796841501</v>
+        <v>1453.733796841502</v>
       </c>
       <c r="W33" t="n">
         <v>1240.50062857783</v>
@@ -6822,7 +6822,7 @@
         <v>1064.174646716723</v>
       </c>
       <c r="Y33" t="n">
-        <v>904.7726870805528</v>
+        <v>904.7726870805531</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>717.615232609935</v>
+        <v>717.6152326099358</v>
       </c>
       <c r="C34" t="n">
-        <v>611.8586359215991</v>
+        <v>611.8586359215999</v>
       </c>
       <c r="D34" t="n">
-        <v>517.7007669944567</v>
+        <v>517.7007669944576</v>
       </c>
       <c r="E34" t="n">
-        <v>422.1267276127238</v>
+        <v>422.1267276127247</v>
       </c>
       <c r="F34" t="n">
-        <v>322.8323774732626</v>
+        <v>322.8323774732636</v>
       </c>
       <c r="G34" t="n">
-        <v>220.9187621487536</v>
+        <v>220.9187621487546</v>
       </c>
       <c r="H34" t="n">
-        <v>136.648082704158</v>
+        <v>136.6480827041589</v>
       </c>
       <c r="I34" t="n">
-        <v>85.63881255843184</v>
+        <v>85.63881255843197</v>
       </c>
       <c r="J34" t="n">
-        <v>163.757935876166</v>
+        <v>163.7579358761659</v>
       </c>
       <c r="K34" t="n">
         <v>382.3468375109276</v>
       </c>
       <c r="L34" t="n">
-        <v>706.2805117035118</v>
+        <v>706.2805117035117</v>
       </c>
       <c r="M34" t="n">
         <v>1059.581142056529</v>
@@ -6889,7 +6889,7 @@
         <v>1812.127402261326</v>
       </c>
       <c r="U34" t="n">
-        <v>1594.666030557397</v>
+        <v>1594.666030557398</v>
       </c>
       <c r="V34" t="n">
         <v>1386.117061246867</v>
@@ -6898,10 +6898,10 @@
         <v>1172.384172505689</v>
       </c>
       <c r="X34" t="n">
-        <v>999.3770861153198</v>
+        <v>999.3770861153203</v>
       </c>
       <c r="Y34" t="n">
-        <v>839.9781632540319</v>
+        <v>839.9781632540326</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J35" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K35" t="n">
-        <v>620.5236483153982</v>
+        <v>341.6111460542108</v>
       </c>
       <c r="L35" t="n">
-        <v>1333.115048127636</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M35" t="n">
-        <v>2109.43363911939</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N35" t="n">
-        <v>2862.614655758008</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O35" t="n">
-        <v>3506.245512175113</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P35" t="n">
-        <v>3797.046353522642</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q35" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R35" t="n">
         <v>4118.207360317934</v>
@@ -7014,25 +7014,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J36" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K36" t="n">
-        <v>538.1704034716574</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="L36" t="n">
-        <v>1199.258575390946</v>
+        <v>936.2651766882802</v>
       </c>
       <c r="M36" t="n">
-        <v>1424.896252510964</v>
+        <v>936.2651766882802</v>
       </c>
       <c r="N36" t="n">
-        <v>1424.896252510964</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="O36" t="n">
-        <v>2128.853343056859</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="P36" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q36" t="n">
         <v>2128.853343056859</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578616</v>
+        <v>714.3405672578618</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695257</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423832</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8520622606504</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211898</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G37" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H37" t="n">
         <v>133.373417352085</v>
@@ -7114,7 +7114,7 @@
         <v>1994.491031412363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2124.055635127397</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R37" t="n">
         <v>2104.119692552745</v>
@@ -7123,22 +7123,22 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T37" t="n">
-        <v>1808.852736909252</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U37" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V37" t="n">
-        <v>1382.842395894793</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.109507153615</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1024207632462</v>
+        <v>996.1024207632465</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019585</v>
+        <v>836.7034979019588</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2080.954409242188</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C38" t="n">
         <v>1736.166594305405</v>
       </c>
       <c r="D38" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E38" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F38" t="n">
-        <v>692.342364118893</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H38" t="n">
         <v>103.3791341393379</v>
@@ -7175,49 +7175,49 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K38" t="n">
-        <v>620.5236483153982</v>
+        <v>341.6111460542108</v>
       </c>
       <c r="L38" t="n">
-        <v>1333.115048127636</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M38" t="n">
-        <v>2109.43363911939</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N38" t="n">
-        <v>2862.614655758008</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O38" t="n">
-        <v>3506.245512175113</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P38" t="n">
-        <v>3797.046353522642</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q38" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R38" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S38" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T38" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U38" t="n">
         <v>3699.669636568247</v>
       </c>
       <c r="V38" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W38" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X38" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y38" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7260,19 @@
         <v>743.4523191256469</v>
       </c>
       <c r="M39" t="n">
-        <v>1255.195250945241</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="N39" t="n">
-        <v>2128.853343056859</v>
+        <v>1617.110411237265</v>
       </c>
       <c r="O39" t="n">
-        <v>2128.853343056859</v>
+        <v>1617.110411237265</v>
       </c>
       <c r="P39" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R39" t="n">
         <v>2128.853343056859</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578618</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695259</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423834</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606507</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520847</v>
       </c>
       <c r="I40" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514387</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M40" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O40" t="n">
         <v>1724.779017250227</v>
@@ -7351,31 +7351,31 @@
         <v>1994.491031412363</v>
       </c>
       <c r="Q40" t="n">
-        <v>2124.055635127398</v>
+        <v>2124.055635127397</v>
       </c>
       <c r="R40" t="n">
         <v>2104.119692552745</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.064700182603</v>
+        <v>1983.064700182602</v>
       </c>
       <c r="T40" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U40" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V40" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632463</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019586</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188926</v>
+        <v>692.3423641188928</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616724</v>
+        <v>348.9508557616725</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3791341393379</v>
+        <v>103.379134139338</v>
       </c>
       <c r="I41" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J41" t="n">
-        <v>332.6083428643229</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K41" t="n">
-        <v>870.7678439733625</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L41" t="n">
-        <v>1583.3592437856</v>
+        <v>1054.20254586645</v>
       </c>
       <c r="M41" t="n">
-        <v>2359.677834777354</v>
+        <v>1830.521136858204</v>
       </c>
       <c r="N41" t="n">
-        <v>3112.858851415972</v>
+        <v>2583.702153496822</v>
       </c>
       <c r="O41" t="n">
-        <v>3756.489707833077</v>
+        <v>3227.333009913927</v>
       </c>
       <c r="P41" t="n">
-        <v>3756.489707833077</v>
+        <v>3756.489707833078</v>
       </c>
       <c r="Q41" t="n">
-        <v>4077.650714628369</v>
+        <v>4077.65071462837</v>
       </c>
       <c r="R41" t="n">
-        <v>4118.207360317934</v>
+        <v>4118.207360317935</v>
       </c>
       <c r="S41" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T41" t="n">
-        <v>3891.393352558789</v>
+        <v>3891.39335255879</v>
       </c>
       <c r="U41" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V41" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W41" t="n">
         <v>3096.745332539791</v>
       </c>
       <c r="X41" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y41" t="n">
         <v>2425.838813156729</v>
@@ -7485,31 +7485,31 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I42" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4085576997582</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2148139650569</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L42" t="n">
-        <v>1217.302985884345</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="M42" t="n">
-        <v>1217.302985884345</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="N42" t="n">
-        <v>1217.302985884345</v>
+        <v>1537.587931205699</v>
       </c>
       <c r="O42" t="n">
-        <v>1217.302985884345</v>
+        <v>1537.587931205699</v>
       </c>
       <c r="P42" t="n">
-        <v>1779.008878372875</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R42" t="n">
         <v>2128.853343056859</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578619</v>
       </c>
       <c r="C43" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695262</v>
       </c>
       <c r="D43" t="n">
         <v>514.4261016423839</v>
@@ -7555,16 +7555,16 @@
         <v>418.8520622606509</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211895</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G43" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H43" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I43" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J43" t="n">
         <v>160.4832705240929</v>
@@ -7573,13 +7573,13 @@
         <v>379.0721721588545</v>
       </c>
       <c r="L43" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M43" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N43" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O43" t="n">
         <v>1724.779017250227</v>
@@ -7594,25 +7594,25 @@
         <v>2104.119692552745</v>
       </c>
       <c r="S43" t="n">
-        <v>1983.064700182603</v>
+        <v>1983.064700182602</v>
       </c>
       <c r="T43" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U43" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V43" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X43" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632464</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019587</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2080.954409242187</v>
       </c>
       <c r="C44" t="n">
-        <v>1736.166594305405</v>
+        <v>1736.166594305404</v>
       </c>
       <c r="D44" t="n">
         <v>1397.039440148413</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F44" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G44" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H44" t="n">
         <v>103.3791341393379</v>
       </c>
       <c r="I44" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J44" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K44" t="n">
-        <v>620.5236483153982</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L44" t="n">
-        <v>1333.115048127636</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M44" t="n">
-        <v>2109.43363911939</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N44" t="n">
-        <v>2862.614655758008</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O44" t="n">
-        <v>3227.333009913926</v>
+        <v>3227.333009913927</v>
       </c>
       <c r="P44" t="n">
-        <v>3756.489707833077</v>
+        <v>3756.489707833078</v>
       </c>
       <c r="Q44" t="n">
-        <v>4077.650714628369</v>
+        <v>4077.65071462837</v>
       </c>
       <c r="R44" t="n">
-        <v>4118.207360317934</v>
+        <v>4118.207360317935</v>
       </c>
       <c r="S44" t="n">
         <v>4048.263060861982</v>
@@ -7679,19 +7679,19 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V44" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654674</v>
       </c>
       <c r="W44" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.74533253979</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.43871045869</v>
       </c>
       <c r="Y44" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156728</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I45" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J45" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="K45" t="n">
-        <v>538.1704034716574</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="L45" t="n">
-        <v>1199.258575390946</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="M45" t="n">
-        <v>1567.147450568329</v>
+        <v>925.3412279009253</v>
       </c>
       <c r="N45" t="n">
-        <v>1567.147450568329</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="O45" t="n">
-        <v>1567.147450568329</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="P45" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q45" t="n">
         <v>2128.853343056859</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.3405672578617</v>
+        <v>714.3405672578621</v>
       </c>
       <c r="C46" t="n">
-        <v>608.5839705695258</v>
+        <v>608.5839705695262</v>
       </c>
       <c r="D46" t="n">
-        <v>514.4261016423834</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E46" t="n">
-        <v>418.8520622606504</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F46" t="n">
-        <v>319.5577121211893</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G46" t="n">
-        <v>217.6440967966803</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H46" t="n">
-        <v>133.3734173520845</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I46" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635871</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4832705240928</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588546</v>
       </c>
       <c r="L46" t="n">
         <v>703.0058463514385</v>
@@ -7846,10 +7846,10 @@
         <v>1169.109507153615</v>
       </c>
       <c r="X46" t="n">
-        <v>996.1024207632461</v>
+        <v>996.1024207632465</v>
       </c>
       <c r="Y46" t="n">
-        <v>836.7034979019585</v>
+        <v>836.7034979019588</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>516.1388958908557</v>
+        <v>516.1388958908572</v>
       </c>
       <c r="L2" t="n">
-        <v>310.1134163553779</v>
+        <v>464.2689689893026</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.2927306746856</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>519.9147969742594</v>
       </c>
       <c r="O2" t="n">
-        <v>520.1922818434217</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8058,22 +8058,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>482.828289002254</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>483.1170300284891</v>
       </c>
       <c r="M3" t="n">
-        <v>84.07781592038026</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>480.1958996113886</v>
+        <v>480.1958996113901</v>
       </c>
       <c r="O3" t="n">
-        <v>484.7539852176386</v>
+        <v>484.7539852176401</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>80.77316718476796</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>516.1388958908557</v>
+        <v>516.1388958908572</v>
       </c>
       <c r="L5" t="n">
-        <v>522.4879042804835</v>
+        <v>522.4879042804849</v>
       </c>
       <c r="M5" t="n">
-        <v>520.2927306746841</v>
+        <v>520.2927306746856</v>
       </c>
       <c r="N5" t="n">
-        <v>204.9428602004956</v>
+        <v>502.6621704604153</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8237,7 +8237,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>482.828289002254</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>483.1170300284876</v>
+        <v>483.1170300284891</v>
       </c>
       <c r="M6" t="n">
-        <v>316.3198599535407</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>480.1958996113901</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>484.7539852176401</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>271.6820360241566</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8453,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O8" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8535,16 +8535,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>394.1192645454833</v>
       </c>
       <c r="M9" t="n">
-        <v>425.4271248393445</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8553,7 +8553,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>304.8737611291497</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8699,7 +8699,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>828.4983647654545</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8772,19 +8772,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704847</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>527.8697493391553</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8939,7 +8939,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>718.1191221381405</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -8948,7 +8948,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>103.0756199053232</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>109.0037515360773</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>527.8697493391553</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389136</v>
+        <v>607.5290136521753</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>852.2475856912706</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9240,31 +9240,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>350.7366494345346</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>414.181197491393</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>852.2475856912706</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9419,7 +9419,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>389.2360300813948</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9477,19 +9477,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>613.6913745331453</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
@@ -9638,7 +9638,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>607.5290136521753</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
@@ -9647,7 +9647,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>828.4983647654545</v>
       </c>
       <c r="O23" t="n">
         <v>743.321953824879</v>
@@ -9714,16 +9714,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>69.59591606606034</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>518.9382286752101</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9738,7 +9738,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>547.3465691139357</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841776</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339375033</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.75147900000031</v>
+        <v>544.8054309767314</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>915.4839494260226</v>
       </c>
       <c r="O30" t="n">
-        <v>548.9835243030855</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10352,10 +10352,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>815.2746908024792</v>
+        <v>438.8712852698014</v>
       </c>
       <c r="M32" t="n">
-        <v>542.0133206226632</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
         <v>853.701196452193</v>
@@ -10370,7 +10370,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>547.3465691139343</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>878.9624476999984</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10443,13 +10443,13 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389136</v>
+        <v>94.24904359250789</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10601,13 +10601,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>387.3875868642468</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>285.4811293141939</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>337.0699683392701</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10823,7 +10823,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>351.002045075088</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10838,13 +10838,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>387.3875868642468</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>574.4763360814416</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
@@ -10917,13 +10917,13 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>541.3135869795349</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>326.0955061393324</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>276.7918890560744</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11075,7 +11075,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11136,7 +11136,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>69.59591606606014</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11148,7 +11148,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>200.1797552645779</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11157,10 +11157,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11309,7 +11309,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>461.5921535610533</v>
+        <v>204.8391520784742</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11376,25 +11376,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>429.1692081600164</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>915.4839494260225</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.6770145813545</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>138.2367439651512</v>
       </c>
       <c r="D13" t="n">
-        <v>126.7540034815696</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.1560122316143</v>
       </c>
       <c r="F13" t="n">
         <v>131.8391198817652</v>
       </c>
       <c r="G13" t="n">
-        <v>43.24430322036618</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>84.03689068796763</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>65.89926882506134</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>204.814728770164</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.6770145813545</v>
       </c>
       <c r="C16" t="n">
-        <v>138.2367439651511</v>
+        <v>138.2367439651512</v>
       </c>
       <c r="D16" t="n">
-        <v>126.7540034815696</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>78.36255937467411</v>
+        <v>131.8391198817652</v>
       </c>
       <c r="G16" t="n">
-        <v>134.4321924149625</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>116.9656858938484</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>53.03262080808653</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>204.8147287701639</v>
+        <v>204.814728770164</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>154.6770145813544</v>
       </c>
       <c r="C19" t="n">
-        <v>138.2367439651511</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.7540034815696</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>21.70126741199124</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>84.0368906879676</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3821556901393</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>104.6394015520727</v>
       </c>
       <c r="X19" t="n">
         <v>204.8147287701639</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.2367439651511</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E22" t="n">
-        <v>128.1560122316142</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G22" t="n">
         <v>134.4321924149625</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>84.0368906879676</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.54408082833834</v>
+        <v>53.27429639260484</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3821556901393</v>
+        <v>152.2637251476514</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>204.8147287701639</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.2367439651512</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>126.7540034815696</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>98.06387187046845</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F25" t="n">
-        <v>131.8391198817652</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>134.4321924149625</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>116.9656858938484</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>84.0368906879676</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.27429639260487</v>
+        <v>33.93140511310083</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.3237676037658</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0789454373739</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501625</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125507</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>23.32994381973008</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>11.39923147953398</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925753</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>58.43630592644137</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>80.24039828114144</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.410193464256565e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722665.3583934804</v>
+        <v>722665.3583934805</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722665.3583934803</v>
+        <v>722665.3583934804</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>721876.6232153978</v>
+        <v>721876.6232153979</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740018.8628559561</v>
+        <v>740018.8628559562</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738728.7108620949</v>
+        <v>738728.710862095</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>456070.7004908796</v>
       </c>
       <c r="C2" t="n">
-        <v>456070.7004908795</v>
+        <v>456070.7004908794</v>
       </c>
       <c r="D2" t="n">
-        <v>456070.7004908796</v>
+        <v>456070.7004908794</v>
       </c>
       <c r="E2" t="n">
-        <v>442637.993137354</v>
+        <v>442637.9931373539</v>
       </c>
       <c r="F2" t="n">
         <v>442637.9931373537</v>
@@ -26329,13 +26329,13 @@
         <v>442637.9931373537</v>
       </c>
       <c r="H2" t="n">
-        <v>442637.9931373532</v>
+        <v>442637.9931373533</v>
       </c>
       <c r="I2" t="n">
-        <v>442637.9931373535</v>
+        <v>442637.9931373533</v>
       </c>
       <c r="J2" t="n">
-        <v>441978.4266584811</v>
+        <v>441978.4266584808</v>
       </c>
       <c r="K2" t="n">
         <v>441978.426658481</v>
@@ -26347,10 +26347,10 @@
         <v>456070.7004908792</v>
       </c>
       <c r="N2" t="n">
-        <v>456070.7004908788</v>
+        <v>456070.7004908792</v>
       </c>
       <c r="O2" t="n">
-        <v>456070.7004908793</v>
+        <v>456070.7004908791</v>
       </c>
       <c r="P2" t="n">
         <v>456070.7004908792</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143098.3608911737</v>
+        <v>143098.3608911742</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29528.81835765596</v>
+        <v>29528.8183576555</v>
       </c>
       <c r="E3" t="n">
         <v>215145.8694717669</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136987.1614028029</v>
+        <v>136987.1614028037</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>28147.57301288804</v>
+        <v>28147.57301288812</v>
       </c>
       <c r="M3" t="n">
-        <v>148571.5205214762</v>
+        <v>148571.5205214759</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23599.15338107048</v>
+        <v>23599.15338107037</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210566.9728842708</v>
+        <v>215513.5415254367</v>
       </c>
       <c r="C4" t="n">
-        <v>210566.9728842708</v>
+        <v>215513.5415254367</v>
       </c>
       <c r="D4" t="n">
-        <v>188971.6830029368</v>
+        <v>194585.6535892088</v>
       </c>
       <c r="E4" t="n">
-        <v>83661.60779272331</v>
+        <v>92194.0647520425</v>
       </c>
       <c r="F4" t="n">
-        <v>83661.60779272337</v>
+        <v>92194.06475204251</v>
       </c>
       <c r="G4" t="n">
-        <v>83661.60779272337</v>
+        <v>92194.06475204254</v>
       </c>
       <c r="H4" t="n">
-        <v>83661.60779272339</v>
+        <v>92194.06475204253</v>
       </c>
       <c r="I4" t="n">
-        <v>83661.60779272337</v>
+        <v>92194.06475204253</v>
       </c>
       <c r="J4" t="n">
-        <v>82176.31748340267</v>
+        <v>90737.93101729811</v>
       </c>
       <c r="K4" t="n">
-        <v>82176.3174834026</v>
+        <v>90737.93101729811</v>
       </c>
       <c r="L4" t="n">
-        <v>107843.8019160873</v>
+        <v>115969.9630333399</v>
       </c>
       <c r="M4" t="n">
-        <v>113910.9771879592</v>
+        <v>121849.632390728</v>
       </c>
       <c r="N4" t="n">
-        <v>113910.9771879592</v>
+        <v>121849.632390728</v>
       </c>
       <c r="O4" t="n">
-        <v>113910.9771879592</v>
+        <v>121849.632390728</v>
       </c>
       <c r="P4" t="n">
-        <v>113910.9771879592</v>
+        <v>121849.632390728</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59589.35237803242</v>
+        <v>59589.35237803251</v>
       </c>
       <c r="C5" t="n">
-        <v>59589.35237803242</v>
+        <v>59589.35237803251</v>
       </c>
       <c r="D5" t="n">
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73096.60560443856</v>
+        <v>73096.60560443855</v>
       </c>
       <c r="F5" t="n">
         <v>73096.60560443855</v>
@@ -26491,13 +26491,13 @@
         <v>73096.60560443855</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686479</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>70523.36697092532</v>
+        <v>70523.36697092542</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26506,10 +26506,10 @@
         <v>68034.62130334972</v>
       </c>
       <c r="O5" t="n">
-        <v>68034.62130334972</v>
+        <v>68034.62130334973</v>
       </c>
       <c r="P5" t="n">
-        <v>68034.62130334972</v>
+        <v>68034.62130334973</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42816.01433740277</v>
+        <v>37869.44569623622</v>
       </c>
       <c r="C6" t="n">
-        <v>185914.3752285762</v>
+        <v>180967.8065874102</v>
       </c>
       <c r="D6" t="n">
-        <v>172201.1340517893</v>
+        <v>166587.1634655175</v>
       </c>
       <c r="E6" t="n">
-        <v>70733.91026842518</v>
+        <v>62153.47935427189</v>
       </c>
       <c r="F6" t="n">
-        <v>285879.7797401918</v>
+        <v>277299.3488260387</v>
       </c>
       <c r="G6" t="n">
-        <v>285879.7797401918</v>
+        <v>277299.3488260385</v>
       </c>
       <c r="H6" t="n">
-        <v>285879.7797401913</v>
+        <v>277299.3488260382</v>
       </c>
       <c r="I6" t="n">
-        <v>285879.7797401916</v>
+        <v>277299.3488260382</v>
       </c>
       <c r="J6" t="n">
-        <v>149469.7909954107</v>
+        <v>140857.8479121127</v>
       </c>
       <c r="K6" t="n">
-        <v>286456.9523982135</v>
+        <v>277845.0093149166</v>
       </c>
       <c r="L6" t="n">
-        <v>249555.958590979</v>
+        <v>241429.7974737262</v>
       </c>
       <c r="M6" t="n">
-        <v>125553.581478094</v>
+        <v>117614.9262753255</v>
       </c>
       <c r="N6" t="n">
-        <v>274125.1019995698</v>
+        <v>266186.4467968014</v>
       </c>
       <c r="O6" t="n">
-        <v>250525.9486184999</v>
+        <v>242587.2934157309</v>
       </c>
       <c r="P6" t="n">
-        <v>274125.1019995702</v>
+        <v>266186.4467968015</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="F2" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="G2" t="n">
         <v>31.14569474874951</v>
@@ -26704,19 +26704,19 @@
         <v>31.14569474874951</v>
       </c>
       <c r="I2" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M2" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N2" t="n">
         <v>64.68340799244812</v>
@@ -26725,7 +26725,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="P2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="C4" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="D4" t="n">
         <v>522.0635703700256</v>
@@ -26811,13 +26811,13 @@
         <v>1159.181220273124</v>
       </c>
       <c r="J4" t="n">
-        <v>1165.546221132784</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="K4" t="n">
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1070.485156980398</v>
+        <v>1070.4851569804</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.18446626611004</v>
+        <v>35.18446626611015</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.4989417263381</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>95.06106415238696</v>
+        <v>95.06106415238548</v>
       </c>
       <c r="E4" t="n">
-        <v>637.1176499030985</v>
+        <v>637.1176499030984</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>433.3675070772991</v>
+        <v>433.3675070773011</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>596.1843330021838</v>
+        <v>596.1843330021825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633812</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>95.06106415238696</v>
+        <v>95.06106415238548</v>
       </c>
       <c r="M4" t="n">
-        <v>637.1176499030985</v>
+        <v>637.1176499030984</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>387.1081996463832</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>135.1376067074532</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.14508532932899</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>123.1637728902153</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>77.32907893613944</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>170.1418325749053</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>69.52375102387151</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>114.600734274345</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27679,7 +27679,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>96.42886391047612</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>110.7250876057571</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.42002537405574</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -27789,7 +27789,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>126.9450269688242</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27907,10 +27907,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>160.5105722195419</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.92776536401732</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>70.84170188260201</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="C11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="D11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="E11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="F11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="G11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="H11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="I11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="T11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="U11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="V11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="W11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="X11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="C13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="D13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="E13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="F13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="G13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="H13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="I13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="J13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="K13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="L13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="M13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="N13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="O13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="P13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="R13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="S13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="T13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="U13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="V13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="W13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="X13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.14569474874946</v>
+        <v>31.14569474874947</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="C14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="D14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="E14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="F14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="G14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="H14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="I14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="T14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="U14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="V14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="W14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="X14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="C16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="D16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="E16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="F16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="G16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="H16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="I16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="J16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="K16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="L16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="M16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="N16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="O16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="P16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="R16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="S16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="T16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="U16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="V16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="W16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="X16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.14569474874951</v>
+        <v>31.1456947487495</v>
       </c>
     </row>
     <row r="17">
@@ -28855,7 +28855,7 @@
         <v>31.14569474874951</v>
       </c>
       <c r="U20" t="n">
-        <v>31.14569474874951</v>
+        <v>31.14569474874918</v>
       </c>
       <c r="V20" t="n">
         <v>31.14569474874951</v>
@@ -28867,7 +28867,7 @@
         <v>31.14569474874951</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.14569474874952</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="21">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="C23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="D23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="E23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="F23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="T23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874918</v>
       </c>
       <c r="U23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="V23" t="n">
-        <v>31.14569474875003</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="W23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="X23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="C25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="D25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="E25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="F25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="K25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="L25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="M25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="N25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="O25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="P25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="R25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="S25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="T25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="U25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="V25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="W25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="X25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.14569474874948</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633814</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C32" t="n">
-        <v>64.6834079924481</v>
+        <v>35.19620774826888</v>
       </c>
       <c r="D32" t="n">
-        <v>64.6834079924481</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G32" t="n">
-        <v>64.6834079924481</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X32" t="n">
-        <v>35.19620774827513</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="38">
@@ -30417,7 +30417,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="O40" t="n">
-        <v>64.68340799244777</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P40" t="n">
         <v>64.68340799244812</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="L2" t="n">
-        <v>214.628018292533</v>
+        <v>368.7835709264578</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0025062176386</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0025062176386</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="M3" t="n">
-        <v>26.51353218196283</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26.51353218196421</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="L5" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="M5" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="N5" t="n">
-        <v>112.0305694438763</v>
+        <v>409.749879703796</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34957,7 +34957,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>427.0025062176386</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>427.0025062176386</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="M6" t="n">
-        <v>258.7555762151233</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>427.0025062176401</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>214.9894175193179</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,17 +35255,17 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>338.0047407346343</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>367.8628411009271</v>
-      </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
@@ -35273,7 +35273,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>231.5501697958418</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35419,7 +35419,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>735.5860740088352</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.37049212774998</v>
+        <v>45.37049212775</v>
       </c>
       <c r="K13" t="n">
         <v>187.2591570944444</v>
@@ -35586,7 +35586,7 @@
         <v>238.8986646978529</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.33562384219474</v>
+        <v>97.33562384219476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>624.9293465123574</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35668,7 +35668,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>15.76347709059969</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>57.63451273607732</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.37049212775004</v>
+        <v>45.37049212775003</v>
       </c>
       <c r="K16" t="n">
         <v>187.2591570944444</v>
@@ -35823,7 +35823,7 @@
         <v>238.8986646978529</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.33562384219479</v>
+        <v>97.33562384219478</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656965</v>
+        <v>518.3926239789582</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>758.9573612342251</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>294.9108666499192</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>360.987804097643</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>758.9573612342251</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36139,7 +36139,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>299.2022256822428</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>560.4979811393954</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>518.3926239789582</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36367,7 +36367,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>735.5860740088352</v>
       </c>
       <c r="O23" t="n">
         <v>650.1321781990958</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.22667726606033</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>461.3739449367927</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.37049212775001</v>
+        <v>45.37049212775004</v>
       </c>
       <c r="K25" t="n">
         <v>187.2591570944444</v>
@@ -36522,10 +36522,10 @@
         <v>293.6680182639622</v>
       </c>
       <c r="M25" t="n">
-        <v>323.3316103452073</v>
+        <v>323.3316103452074</v>
       </c>
       <c r="N25" t="n">
-        <v>314.8212325207194</v>
+        <v>314.8212325207195</v>
       </c>
       <c r="O25" t="n">
         <v>293.3281294219557</v>
@@ -36534,7 +36534,7 @@
         <v>238.8986646978529</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.33562384219476</v>
+        <v>97.33562384219479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825799</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>543.5954556656961</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L26" t="n">
-        <v>719.789292739634</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M26" t="n">
-        <v>784.1601929209631</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N26" t="n">
-        <v>760.7889056955732</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O26" t="n">
-        <v>650.1321781990954</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P26" t="n">
-        <v>534.5017150698496</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689815</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.96630877733804</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.7604621844779</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639379</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2320453030864</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>487.0539519767314</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823534</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555386</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533859</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36771,7 +36771,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978343</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>862.2905560322727</v>
       </c>
       <c r="O30" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K31" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>719.7892927396343</v>
+        <v>343.3858872069566</v>
       </c>
       <c r="M32" t="n">
-        <v>448.7230961656177</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
         <v>760.7889056955737</v>
@@ -37090,7 +37090,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2320453030853</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>821.398163961581</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144862</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K34" t="n">
         <v>220.796870338143</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656965</v>
+        <v>5.112653919290765</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37321,13 +37321,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>293.7382235833627</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>283.8765749455201</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144862</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K37" t="n">
         <v>220.796870338143</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>261.8656554018709</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37558,13 +37558,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>293.7382235833627</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>516.9120523430241</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
@@ -37637,13 +37637,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>487.0539519767312</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>348.3589457644181</v>
       </c>
       <c r="O40" t="n">
-        <v>326.865842665654</v>
+        <v>326.8658426656543</v>
       </c>
       <c r="P40" t="n">
         <v>272.4363779415515</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>252.7719148060245</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>181.3064909932295</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37795,7 +37795,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.22667726606013</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>146.9863618708279</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38029,7 +38029,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>368.4023779352702</v>
+        <v>111.649376452691</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>371.6049244215989</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>862.2905560322725</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
